--- a/biology/Histoire de la zoologie et de la botanique/Jean_Lejoly/Jean_Lejoly.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Lejoly/Jean_Lejoly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Lejoly, né le 18 août 1945 à Malmedy dans la province de Liège, est un botaniste, mycologue, horticulteur et agronome belge[1], spécialiste de la flore d'Afrique centrale, membre de l'Herbarium et Bibliothèque de Botanique africaine (BRLU) de l'Université libre de Bruxelles.
-Ses domaines de recherche comportent l'exploration de la biodiversité végétale d'Afrique centrale, la systématique et la phytogéographie, la description de nouveaux taxons, l'application à la gestion et la conservation des ressources naturelles[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Lejoly, né le 18 août 1945 à Malmedy dans la province de Liège, est un botaniste, mycologue, horticulteur et agronome belge, spécialiste de la flore d'Afrique centrale, membre de l'Herbarium et Bibliothèque de Botanique africaine (BRLU) de l'Université libre de Bruxelles.
+Ses domaines de recherche comportent l'exploration de la biodiversité végétale d'Afrique centrale, la systématique et la phytogéographie, la description de nouveaux taxons, l'application à la gestion et la conservation des ressources naturelles.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les épithètes spécifiques de nombreuses espèces lui rendent hommage, telles que : Bertiera lejolyana, Bidens lejolyana, Emilia lejolyana, Eulophia lejolyana, Hypoxis lejolyana, Pleiotaxis lejolyana, Polystachya lejolyana, Sopubia lejolyana ou Tricalysia lejolyana.
 </t>
@@ -571,11 +587,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ouvrages
-Biologie végétale appliquée aux sciences pharmaceutiques, Vol. 1, 117 p.; Vol. 2, 208 p. Presses universitaires de Bruxelles [réf. incomplète]
-Initiation à l'agronomie, Fasc. 1, 88 p. Fasc. 2, 107 p., Presses universitaires de Bruxelles [réf. incomplète]
-Articles
-Valorisation des plantes médicinales africaines, La Morale laïque, Bruxelles, 1991, p. 9-11
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Biologie végétale appliquée aux sciences pharmaceutiques, Vol. 1, 117 p.; Vol. 2, 208 p. Presses universitaires de Bruxelles [réf. incomplète]
+Initiation à l'agronomie, Fasc. 1, 88 p. Fasc. 2, 107 p., Presses universitaires de Bruxelles [réf. incomplète]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Lejoly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Lejoly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sélection de publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Valorisation des plantes médicinales africaines, La Morale laïque, Bruxelles, 1991, p. 9-11
 Avec P. Waechter, PHARMEL : banque de données de médecines traditionnelle et pharmacopée, Actes du 1er Colloque européen d'ethnopharmacologie, Metz, 22-25 mars 1990, ORSTOM éd., 1991, p. 152-154
 (en) Avec K. Van Essche, Anthelminthic African plants, Actes du 1er Colloque européen d'ethnopharmacologie, Metz, 22-25 mars 1990, ORSTOM, 1991, p. 184-186
 Avec N. Sokpon, Phénologie et production de litière dans la forêt dense semi-décidue de Pobè (Sud-Est du Bénin), 10e Congrès Forestier Mondial, Revue Forestière Française, Hors-série no 2, 1991, p. 171-176
